--- a/Excel_Appender/Excel_Files_To_Append/ilanlar_2.xlsx
+++ b/Excel_Appender/Excel_Files_To_Append/ilanlar_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,17 +498,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Buca İktisat Fakültesi Arkası Arakat Kiralık 1+1Klimalı Daire</t>
+          <t>Bucada Kiralık Daire Kampüs Yakını Full Eşyalı D.Gaz ve Klimalı</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.500
+          <t>16.500
 TL</t>
         </is>
       </c>
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/151862-3</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/21671-6364</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -549,55 +549,65 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Buca Vali Rahmibey Mah. Kiralık Müstakil Bina 218m2 Arsa 6+2</t>
+          <t>TINAZTEPE HST YAKINI ÜNİVERSİTE VE KIZ YURDUNA ÇEVRE YOLUNA YAKIN DOĞALGAZLI, EŞYALI 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>75.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>218 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>39 Yaşında</t>
+          <t>8 Yaşında</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/mustakil-ev/60124-1403</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43580621</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -614,48 +624,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ÜNİVERSİTE YAKINI 1+0 EŞYALI D.GAZLI MERKEZİ KONUMDA KİRALIK LÜKS DAİRELER</t>
+          <t>ATATÜRK MAH'DE SİTE İÇİ ARA KAT D. GAZLI FULL EŞYALI 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111716-1034</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-123</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -665,70 +675,65 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OYAK BUCA 2.ETAP KİRALIK DAİRE.</t>
+          <t>ÜNİVERSİTE KARŞISI ARAKAT DOĞALGAZLI SIFIR LÜX EŞYALI  KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Aydoğdu Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45.000
+          <t>33.000
 TL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/0-43670789</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43551010</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -740,75 +745,80 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ev arkadaşı</t>
+          <t>Oyak Buca 2.Etap Havuz Manzaralı ve Kapalı Balkonlu 3+1 Kiralık Daire</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Aydoğdu Mah.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.500
+          <t>37.000
 TL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>147 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>9. Kat</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/0-43679526</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/2499-11688</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN ŞİRNYER METRO 5DK 2+1 90M 3.KAT BALKON</t>
+          <t>SAYGIN GAYRİMENKUL DEN ÜÇKUYULAR MEYDANINDA BALKONLU KLİMALI 2+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16.500
+          <t>20.000
 TL</t>
         </is>
       </c>
@@ -819,90 +829,85 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>40 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>01-11-2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-747</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/146420-26</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA ÇEVİK BİR'DE 3+1 ARAKAT KİRALIK DAİRE</t>
+          <t>BUCA MURATHAN MH EVKA-1 VE YEDİ GÖLLER YAKINI MÜSTAKİL DUBLEX 4+1 150M2 DOĞALGAZLI KİRALIK EV</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Murathan Mah.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23.000
+          <t>30.000
 TL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>4 + 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>30 Yaşında</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3. Kat</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/63598-132</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-murathan-kiralik/mustakil-ev/23746-17336</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -913,18 +918,23 @@
       <c r="K8" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Belediye Yakını İki Kişinin Rahatlıkla Yaşayabileceği Büyük(1+1)</t>
+          <t>NEZİH SİTE İÇİ ''3+1'' OTOPARKLI - ÇOCUK PARKLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -935,85 +945,80 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>8. Kat</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>25-10-2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/139799-395</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-42</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EŞYALI-DOĞALGAZLI 2 ODA 1 SALON-ARAKAT DAİRE</t>
+          <t>Belediye Yakını İki Kişinin Rahatlıkla Yaşayabileceği Büyük(1+1)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1023,7 +1028,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/13470-2474</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/139799-395</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1045,7 +1050,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 EŞYALI&amp;KLİMALI KİRALIK DAİR</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1076,17 +1081,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1091</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1087</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1103,33 +1108,33 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Buca Atatürk Mahallesi Klimalı Ultra Lüks Eşyalı 1+1............</t>
+          <t>Şirinyer Efeler Mh. 3+1 150 M2 Doğalgazlı K.Mutfak Kiralık Daire</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15.500
+          <t>28.000
 TL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9 Yaşında</t>
+          <t>23 Yaşında</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1139,97 +1144,102 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/151862-13</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/24511-9145</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA FIRAT MAH, D.GAZLI ARA KAT 3+1 KİRALIK DAİRE.</t>
+          <t>bucaPARİSADAN KAMPÜS VE HASANAĞA BAH. YAKINI EYŞALI 1+1 KİRALIK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Fırat Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>53 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>22 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/63598-158</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/143816-37</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN ŞİRİNYER METRO 5DK 1+1 50M EŞYALI ASANSÖR 2.KAT AÇIK MUTFAK</t>
+          <t>ONE HOUSE’DAN KURUÇEŞME MAHALLESİNDE 1+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18.000
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -1245,22 +1255,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-797</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-129</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1282,7 +1292,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BUCA KAMPÜS YAKINI 1+0 EŞYALI KİRALIK DAİRE</t>
+          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI GENİŞ 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1292,38 +1302,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11.000
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/109132-312</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-259</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1333,29 +1343,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN ŞİRİNYER İZBAN 10DK 3+1 130M Y. GİRİŞ BALKON 3 TUVALET ÖNÜ AÇIK</t>
+          <t>UFUK MAH.3 ODA 1 SALON KLASİK DAİRE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Ufuk Mah.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23.000
+          <t>10.500
 TL</t>
         </is>
       </c>
@@ -1371,22 +1381,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>35 Yaşında</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-751</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ufuk-kiralik/daire/13470-2421</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1396,19 +1406,19 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Isıtma Yok</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OYAK BUCA 1. ETAP SİTESİNDE 3+1 KİRALIK ÜÇ CEPHELİ GENİŞ LÜKS DAİRE</t>
+          <t>Oyak Buca 2. Etap Konutları Kiralık 3+1 Daire</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1418,7 +1428,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>39.000
+          <t>38.000
 TL</t>
         </is>
       </c>
@@ -1429,27 +1439,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>146 m²</t>
+          <t>141 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Zemin</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/91937-13</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/151862-12</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1460,59 +1470,54 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>Merkezi (Pay Ölçer)</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ÖZPA - BUCA TENİS KULÜBÜ YANI TERASLI 2+1 DOĞALGAZLI OTOPARKLI TERASLI SIFIR KİRALIK DUBLEKS DAİRE</t>
+          <t>BUCA ATATÜRK MAHALLESİNDE 3+1 FULL TADİLATLI MERKEZİ KONUM ULAŞIMI 4 BALKONLU KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Gaziler Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-gaziler-kiralik/daire/25220-2509</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150876-20</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1534,7 +1539,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Buca Yeşilbağlar Mh. 2+1 Kapalı Mutfak 110 M2 Kiralık Daire</t>
+          <t>KAMU PERSONELİ AİLEYE EŞYALI&amp;EŞYASIZ KİRALIK DOĞALGAZLI DAİRE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1544,7 +1549,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12.500
+          <t>17.500
 TL</t>
         </is>
       </c>
@@ -1555,117 +1560,117 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>30 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yesilbaglar-kiralik/daire/24511-9150</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yesilbaglar-kiralik/daire/140664-77</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bucanın Gözbebeği Yeşilbağlarda Havuzlu Sitede 3+1 Kiralık Daire</t>
+          <t>BELLA HOME SİTESİNDE FULL EŞYALI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yeşilbağlar Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>32.000
+          <t>17.500
 TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yesilbaglar-kiralik/daire/123628-20</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-100</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>İZMİR BUCA BUCAKOOP</t>
+          <t>İZMİR BUCADA KONFORLU GÜNLÜK HAFTALIK KİRALIK DAİRELER</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Buca Koop. Mah.</t>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22.000
+          <t>400
 TL</t>
         </is>
       </c>
@@ -1676,54 +1681,49 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/37745-1879</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/138098-25</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BUCA ŞİRİNYER İZBAN YAKININDA 1+1 50M2 DOĞALGAZLI ULTRA LÜKS EMSALSİZ SIFIR KİRALIK DAİRE</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Akıncılar Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16.500
+          <t>12.000
 TL</t>
         </is>
       </c>
@@ -1739,90 +1739,85 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/133137-601</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1086</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Buca Göksu Mah. 1+1 Kiralık Daire</t>
+          <t>PARİSA'DAN KAMPÜS KARŞISI D.GAZLI KLİMALI ASANSÖRLÜ EŞYALI 3+1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Göksu Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/134354-1443</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/143816-12</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1834,53 +1829,53 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ONE HOUSE GAYRİMENKUL’DEN DUMLUPINAR MAHALLESİNDE 3+1 GENİŞ DAİRE</t>
+          <t>ONE HOUSE’DAN KURUÇEŞME MAHALLESİ 1+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12 Yaşında</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/144273-127</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-128</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1890,14 +1885,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kiralık Site İçinde Büyük Arakat Daire</t>
+          <t>İZMİR BUCA BUCAKOOP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1907,38 +1902,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>28.000
+          <t>18.500
 TL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>150 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>18 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6. Kat</t>
+          <t>8. Kat</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/82933-244</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/37745-1876</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1960,106 +1955,111 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Buca İktisat Fakültesi Arkası Arakat Kiralık 1+1Klimalı Daire</t>
+          <t>Kadın Doğum Hastanesi Yanı, BAKIMLI, BOŞ, 2+1, Kiralık Daire</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14.500
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/151862-3</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/21024-11230</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Buca Vali Rahmibey Mah. Kiralık Müstakil Bina 218m2 Arsa 6+2</t>
+          <t>İZMİR BUCA DUMLUPINAR MAH. MERKEZİ KONUMLU ARA KAT KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Dumlupınar Mah.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>75.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>218 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>39 Yaşında</t>
+          <t>40 Yaşında</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/mustakil-ev/60124-1403</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/126264-1839</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2069,45 +2069,40 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ÜNİVERSİTE YAKINI 1+0 EŞYALI D.GAZLI MERKEZİ KONUMDA KİRALIK LÜKS DAİRELER</t>
+          <t>Buca Şirinyer Laleli Mh 2+1 80M2 Doğalgazlı Kiralık Arakat Daire</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12.000
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2117,65 +2112,75 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111716-1034</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/24511-9158</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OYAK BUCA 2.ETAP KİRALIK DAİRE.</t>
+          <t>ŞİRİNYER FORBESTE 2+1 DOĞALGAZ KOMBİLİ KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Aydoğdu Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>45.000
+          <t>26.000
 TL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>2 Yaşında</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/0-43670789</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/130324-809</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2185,55 +2190,60 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ev arkadaşı</t>
+          <t>DEÜ YAKINI SİTE İÇİ FULL EŞYALI 1+1 KIRALIK DAİRE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7.500
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>8. Kat</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/0-43679526</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-99</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2243,108 +2253,93 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN ŞİRNYER METRO 5DK 2+1 90M 3.KAT BALKON</t>
+          <t>BUCA HASAN AĞA BAHÇESİ GÜNLÜK KİRALIK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16.500
+          <t>350
 TL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>40 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-747</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/residence/138098-22</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Kat Kaloriferi</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA ÇEVİK BİR'DE 3+1 ARAKAT KİRALIK DAİRE</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23.000
+          <t>13.500
 TL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>30 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2354,12 +2349,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/63598-132</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1084</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2369,60 +2364,55 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Belediye Yakını İki Kişinin Rahatlıkla Yaşayabileceği Büyük(1+1)</t>
+          <t>DOĞALGAZLI,3 ODA 1SALON YENİ BOYALI-BAKIMLI DAİRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20.000
+          <t>21.000
 TL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>28 Yaşında</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/139799-395</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2485</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2444,12 +2434,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EŞYALI-DOĞALGAZLI 2 ODA 1 SALON-ARAKAT DAİRE</t>
+          <t>İzmir Buca Hürriyet MAhallesinde Şirinyer İzbana 5dk//Ful eşyalı//7Yıllık//3.Kat//2+1 Memura Daire</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2460,7 +2450,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>2 + 0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2470,27 +2460,27 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/13470-2474</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/85846-1895</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2507,80 +2497,75 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 EŞYALI&amp;KLİMALI KİRALIK DAİR</t>
+          <t>Hasanağa Meydan civarı 2+1 Kapalı Mutfaklı Asansörlü Doğalgazlı kendine ait Bahçeli Lüks Kiralık</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1091</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/3526-3159</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Buca Atatürk Mahallesi Klimalı Ultra Lüks Eşyalı 1+1............</t>
+          <t>ADATEPE MAH.'de ''1+1'' SIFIR LÜKS KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15.500
+          <t>14.000
 TL</t>
         </is>
       </c>
@@ -2591,122 +2576,117 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>17-10-2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/151862-13</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/104457-60</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA FIRAT MAH, D.GAZLI ARA KAT 3+1 KİRALIK DAİRE.</t>
+          <t>4 LİFE SİTESİ YAKININDA 1+1 FULL EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Fırat Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>22.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>22 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/63598-158</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/85124-982</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN ŞİRİNYER METRO 5DK 1+1 50M EŞYALI ASANSÖR 2.KAT AÇIK MUTFAK</t>
+          <t>BARIŞ MAH 1+1 DOĞALGAZLI EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Ufuk Mah.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18.000
+          <t>18.500
 TL</t>
         </is>
       </c>
@@ -2717,27 +2697,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-797</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ufuk-kiralik/daire/124272-351</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2754,7 +2739,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BUCA KAMPÜS YAKINI 1+0 EŞYALI KİRALIK DAİRE</t>
+          <t>ARGA'DAN ADATEPE MH.ESHOT GARAJ YAKINI  2+1KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2764,38 +2749,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>9 Yaşında</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/109132-312</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/63598-156</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2806,59 +2791,54 @@
       <c r="K39" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN ŞİRİNYER İZBAN 10DK 3+1 130M Y. GİRİŞ BALKON 3 TUVALET ÖNÜ AÇIK</t>
+          <t>BUCA ATATÜRK MH.DE BELLA HOME SİTESİ 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23.000
+          <t>19.000
 TL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-751</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-87</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2868,29 +2848,24 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OYAK BUCA 1. ETAP SİTESİNDE 3+1 KİRALIK ÜÇ CEPHELİ GENİŞ LÜKS DAİRE</t>
+          <t>BUCA ELAGANT REZİDANS SİTESİ KİRALIK 160 m² DAİRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Aydoğdu Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>39.000
+          <t>50.000
 TL</t>
         </is>
       </c>
@@ -2901,27 +2876,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>146 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>8 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Zemin</t>
+          <t>8. Kat</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>26-10-2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/91937-13</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/126264-1826</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2931,55 +2906,55 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ÖZPA - BUCA TENİS KULÜBÜ YANI TERASLI 2+1 DOĞALGAZLI OTOPARKLI TERASLI SIFIR KİRALIK DUBLEKS DAİRE</t>
+          <t>MARKA'DAN SİTE İÇİ OTOPARKLI 3+1 D.GAZLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Gaziler Mah.</t>
+          <t>İzmir / Buca / Fırat Mah.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>22.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>9. Kat</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-gaziler-kiralik/daire/25220-2509</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/71024-1083</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2990,28 +2965,23 @@
       <c r="K42" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Buca Yeşilbağlar Mh. 2+1 Kapalı Mutfak 110 M2 Kiralık Daire</t>
+          <t>EŞYALI ,2 ODA 1 SALON SIFIR LÜX ,DOĞALGAZLI VE KLİMALI DAİRE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yeşilbağlar Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12.500
+          <t>27.000
 TL</t>
         </is>
       </c>
@@ -3022,17 +2992,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>30 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3042,7 +3012,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yesilbaglar-kiralik/daire/24511-9150</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/13470-2456</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3064,53 +3034,53 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bucanın Gözbebeği Yeşilbağlarda Havuzlu Sitede 3+1 Kiralık Daire</t>
+          <t>Güven Mh. Şirinyer Merkezde 1+0 Ful Eşyalı Kiralık Daire</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yeşilbağlar Mah.</t>
+          <t>İzmir / Buca / Güven Mah.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>32.000
+          <t>13.500
 TL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yesilbaglar-kiralik/daire/123628-20</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/24511-9154</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3120,60 +3090,60 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>İZMİR BUCA BUCAKOOP</t>
+          <t>ÖZPA - BUCA ALTINKAPI MAHALLESİ TENİS KULÜBÜ YANI 45 M2 DOĞALGAZLI 1. KAT KİRALIK SIFIR 1+1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Buca Koop. Mah.</t>
+          <t>İzmir / Buca / Gaziler Mah.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>22.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>49 m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>7. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/37745-1879</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-gaziler-kiralik/daire/25220-2453</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3190,17 +3160,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BUCA ŞİRİNYER İZBAN YAKININDA 1+1 50M2 DOĞALGAZLI ULTRA LÜKS EMSALSİZ SIFIR KİRALIK DAİRE</t>
+          <t>BUCA YILDIZ 1+1 45 M2 DOĞALGAZLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Akıncılar Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16.500
+          <t>12.000
 TL</t>
         </is>
       </c>
@@ -3211,59 +3181,54 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/133137-601</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/97779-1026</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Buca Göksu Mah. 1+1 Kiralık Daire</t>
+          <t>OĞUZ EMLAKTAN BEGOS KARŞISI ÜNİVERSİTE YAKINI EŞYALI 1+1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Göksu Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12.000
+          <t>16.000
 TL</t>
         </is>
       </c>
@@ -3274,32 +3239,32 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/134354-1443</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/150997-4</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3326,7 +3291,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22.000
+          <t>25.000
 TL</t>
         </is>
       </c>
@@ -3352,102 +3317,107 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/144273-127</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/144273-126</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kiralık Site İçinde Büyük Arakat Daire</t>
+          <t>ARGA'DAN BUCA HEYKEL YAKINI D.GAZLI EŞYALI 1+1 KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Buca Koop. Mah.</t>
+          <t>İzmir / Buca / Yenigün Mah.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>28.000
+          <t>16.500
 TL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>150 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>18 Yaşında</t>
+          <t>22 Yaşında</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/82933-244</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/63598-155</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Kömür-Odun</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Buca İktisat Fakültesi Arkası Arakat Kiralık 1+1Klimalı Daire</t>
+          <t>BELLA HOME SİTESİNDE FULL EŞYALI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14.500
+          <t>18.000
 TL</t>
         </is>
       </c>
@@ -3468,523 +3438,30 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>7. Kat</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/151862-3</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-85</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Buca Vali Rahmibey Mah. Kiralık Müstakil Bina 218m2 Arsa 6+2</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>75.000
-TL</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>7 + 1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>218 m²</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>39 Yaşında</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>05-11-2024</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/mustakil-ev/60124-1403</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ÜNİVERSİTE YAKINI 1+0 EŞYALI D.GAZLI MERKEZİ KONUMDA KİRALIK LÜKS DAİRELER</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>12.000
-TL</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Stüdyo</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>40 m²</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>7 Yaşında</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2. Kat</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>08-11-2024</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111716-1034</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Soba</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>OYAK BUCA 2.ETAP KİRALIK DAİRE.</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Aydoğdu Mah.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>45.000
-TL</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3 + 1</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>160 m²</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>7 Yaşında</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>11. Kat</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>08-11-2024</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/0-43670789</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Ev arkadaşı</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>7.500
-TL</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2 + 1</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>110 m²</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>10 Yaşında</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Giriş Katı</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>09-11-2024</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/0-43679526</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>GÜNEŞ'TEN ŞİRNYER METRO 5DK 2+1 90M 3.KAT BALKON</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>16.500
-TL</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2 + 1</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>90 m²</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>40 Yaşında</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>3. Kat</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>09-11-2024</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-747</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ARGA'DAN BUCA ÇEVİK BİR'DE 3+1 ARAKAT KİRALIK DAİRE</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>23.000
-TL</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>3 + 1</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>130 m²</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>30 Yaşında</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>3. Kat</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>09-11-2024</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/63598-132</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Belediye Yakını İki Kişinin Rahatlıkla Yaşayabileceği Büyük(1+1)</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>20.000
-TL</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1 + 1</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>70 m²</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3 Yaşında</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>3. Kat</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>09-11-2024</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/139799-395</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>EŞYALI-DOĞALGAZLI 2 ODA 1 SALON-ARAKAT DAİRE</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>18.000
-TL</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2 + 1</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>80 m²</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5 Yaşında</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Ara Kat</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>09-11-2024</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/13470-2474</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
